--- a/results/20250402/evaluation_VirusPseAAC_noisy_0.2.xlsx
+++ b/results/20250402/evaluation_VirusPseAAC_noisy_0.2.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.35588</v>
+        <v>0.63183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09413000000000001</v>
+        <v>0.03408</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.17886</v>
+        <v>0.06578000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08276</v>
+        <v>0.03469</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.33409</v>
+        <v>0.63624</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09014999999999999</v>
+        <v>0.03366</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.16058</v>
+        <v>0.09387</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07882</v>
+        <v>0.04478</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.36115</v>
+        <v>0.63331</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08964</v>
+        <v>0.03423</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.18086</v>
+        <v>0.06481000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07454</v>
+        <v>0.03269</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.34263</v>
+        <v>0.63844</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09106</v>
+        <v>0.03159</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.16534</v>
+        <v>0.09872</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07738</v>
+        <v>0.04471</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.62038</v>
+        <v>0.63809</v>
       </c>
       <c r="I34" t="n">
-        <v>0.10045</v>
+        <v>0.02424</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.43289</v>
+        <v>0.01259</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1116</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6198</v>
+        <v>0.63803</v>
       </c>
       <c r="I36" t="n">
-        <v>0.10045</v>
+        <v>0.02447</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.43289</v>
+        <v>0.01259</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1116</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6209</v>
+        <v>0.63835</v>
       </c>
       <c r="I38" t="n">
-        <v>0.10069</v>
+        <v>0.02389</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.43289</v>
+        <v>0.01259</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1116</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.62013</v>
+        <v>0.6379</v>
       </c>
       <c r="I40" t="n">
-        <v>0.10075</v>
+        <v>0.02414</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.43289</v>
+        <v>0.01259</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1116</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.41882</v>
+        <v>0.56007</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0876</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.1948</v>
+        <v>0.0164</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07185</v>
+        <v>0.01898</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.367</v>
+        <v>0.57987</v>
       </c>
       <c r="I68" t="n">
-        <v>0.08327</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.15329</v>
+        <v>0.04058</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06952999999999999</v>
+        <v>0.03023</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.42822</v>
+        <v>0.56231</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0827</v>
+        <v>0.02897</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.1958</v>
+        <v>0.01545</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06806</v>
+        <v>0.01918</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.38198</v>
+        <v>0.58256</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07815999999999999</v>
+        <v>0.02948</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.17656</v>
+        <v>0.0502</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06558</v>
+        <v>0.03026</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.49703</v>
+        <v>0.58085</v>
       </c>
       <c r="I74" t="n">
-        <v>0.07321</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.24137</v>
+        <v>0.00771</v>
       </c>
       <c r="I75" t="n">
-        <v>0.07167999999999999</v>
+        <v>0.01481</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.46942</v>
+        <v>0.58777</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07224999999999999</v>
+        <v>0.01904</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.22121</v>
+        <v>0.01159</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07543</v>
+        <v>0.01692</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.49968</v>
+        <v>0.5805900000000001</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07401000000000001</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.24425</v>
+        <v>0.00771</v>
       </c>
       <c r="I79" t="n">
-        <v>0.07147000000000001</v>
+        <v>0.01481</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.47257</v>
+        <v>0.5879</v>
       </c>
       <c r="I80" t="n">
-        <v>0.07324</v>
+        <v>0.01878</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.22407</v>
+        <v>0.01159</v>
       </c>
       <c r="I81" t="n">
-        <v>0.07527</v>
+        <v>0.01692</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.36874</v>
+        <v>0.63146</v>
       </c>
       <c r="I106" t="n">
-        <v>0.12765</v>
+        <v>0.03553</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.21468</v>
+        <v>0.05312</v>
       </c>
       <c r="I107" t="n">
-        <v>0.11816</v>
+        <v>0.04643</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.36344</v>
+        <v>0.63363</v>
       </c>
       <c r="I108" t="n">
-        <v>0.13161</v>
+        <v>0.03592</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.21949</v>
+        <v>0.07055</v>
       </c>
       <c r="I109" t="n">
-        <v>0.12235</v>
+        <v>0.06122</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.37271</v>
+        <v>0.63204</v>
       </c>
       <c r="I110" t="n">
-        <v>0.12634</v>
+        <v>0.03524</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.21954</v>
+        <v>0.05312</v>
       </c>
       <c r="I111" t="n">
-        <v>0.11825</v>
+        <v>0.04694</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.36225</v>
+        <v>0.63537</v>
       </c>
       <c r="I112" t="n">
-        <v>0.13178</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.21756</v>
+        <v>0.07826</v>
       </c>
       <c r="I113" t="n">
-        <v>0.12225</v>
+        <v>0.06501999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.62434</v>
+        <v>0.63611</v>
       </c>
       <c r="I114" t="n">
-        <v>0.12009</v>
+        <v>0.02588</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.46792</v>
+        <v>0.01261</v>
       </c>
       <c r="I115" t="n">
-        <v>0.16249</v>
+        <v>0.02585</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.62286</v>
+        <v>0.63605</v>
       </c>
       <c r="I116" t="n">
-        <v>0.11901</v>
+        <v>0.02609</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.46695</v>
+        <v>0.01261</v>
       </c>
       <c r="I117" t="n">
-        <v>0.16185</v>
+        <v>0.02585</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.62434</v>
+        <v>0.63611</v>
       </c>
       <c r="I118" t="n">
-        <v>0.12009</v>
+        <v>0.02588</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.46792</v>
+        <v>0.01261</v>
       </c>
       <c r="I119" t="n">
-        <v>0.16249</v>
+        <v>0.02585</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.62286</v>
+        <v>0.63605</v>
       </c>
       <c r="I120" t="n">
-        <v>0.11901</v>
+        <v>0.02609</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.46695</v>
+        <v>0.01261</v>
       </c>
       <c r="I121" t="n">
-        <v>0.16185</v>
+        <v>0.02585</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.37045</v>
+        <v>0.5944199999999999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.05814</v>
+        <v>0.03104</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.15366</v>
+        <v>0.0174</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05727</v>
+        <v>0.01868</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.31484</v>
+        <v>0.60934</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0564</v>
+        <v>0.03316</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.13726</v>
+        <v>0.05131</v>
       </c>
       <c r="I149" t="n">
-        <v>0.04484</v>
+        <v>0.04891</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.37332</v>
+        <v>0.5948</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05886</v>
+        <v>0.03055</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.15947</v>
+        <v>0.01837</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05442</v>
+        <v>0.01838</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.31698</v>
+        <v>0.61322</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04974</v>
+        <v>0.03308</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.14021</v>
+        <v>0.06393</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04404</v>
+        <v>0.04687</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.45895</v>
+        <v>0.61072</v>
       </c>
       <c r="I154" t="n">
-        <v>0.08015</v>
+        <v>0.02926</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.2338</v>
+        <v>0.01542</v>
       </c>
       <c r="I155" t="n">
-        <v>0.08255999999999999</v>
+        <v>0.02352</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.43861</v>
+        <v>0.61465</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0789</v>
+        <v>0.03107</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.22801</v>
+        <v>0.02316</v>
       </c>
       <c r="I157" t="n">
-        <v>0.07733</v>
+        <v>0.02919</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.45947</v>
+        <v>0.6107900000000001</v>
       </c>
       <c r="I158" t="n">
-        <v>0.08123</v>
+        <v>0.02931</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.23477</v>
+        <v>0.01542</v>
       </c>
       <c r="I159" t="n">
-        <v>0.08368</v>
+        <v>0.02352</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.43945</v>
+        <v>0.6149</v>
       </c>
       <c r="I160" t="n">
-        <v>0.07976999999999999</v>
+        <v>0.03114</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.22894</v>
+        <v>0.02314</v>
       </c>
       <c r="I161" t="n">
-        <v>0.07702000000000001</v>
+        <v>0.0314</v>
       </c>
     </row>
   </sheetData>
